--- a/LISTMACADDRESS.xlsx
+++ b/LISTMACADDRESS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESP32_NOW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3ABD1A-E9D2-4031-B78E-78C0CB22CF52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C79F2B-BE89-4A3F-94E0-0FEBB2F5A6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{CDA65AEF-01BB-4FD3-BC8F-82377E30BCE6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CDA65AEF-01BB-4FD3-BC8F-82377E30BCE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>0xa0,0xdd,0x6c,0x0f,0xe2,0x78</t>
+  </si>
+  <si>
+    <t>0xcc,0xdb,0xa7,0x32,0xb1,0x54</t>
+  </si>
+  <si>
+    <t>0xcc,0xdb,0xa7,0x33,0x93,0xfc</t>
+  </si>
+  <si>
+    <t>0xcc,0xdb,0xa7,0x32,0xa7,0x88</t>
   </si>
 </sst>
 </file>
@@ -125,7 +134,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -141,7 +150,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -437,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC789C79-7DEB-4629-AF10-6719F96EEDE4}">
-  <dimension ref="B2:C50"/>
+  <dimension ref="B2:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -493,20 +502,30 @@
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="2:3" ht="23.4">
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="23.4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="2:3" ht="23.4">
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:3" ht="23.4">
@@ -664,10 +683,6 @@
     <row r="49" spans="2:3" ht="23.4">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="2:3" ht="23.4">
-      <c r="B50" s="2"/>
-      <c r="C50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LISTMACADDRESS.xlsx
+++ b/LISTMACADDRESS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESP32_NOW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C79F2B-BE89-4A3F-94E0-0FEBB2F5A6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8AF40-8D1C-4ED1-81F0-5E1014FA15F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CDA65AEF-01BB-4FD3-BC8F-82377E30BCE6}"/>
   </bookViews>
@@ -33,55 +33,59 @@
     <t>MACADDRESS</t>
   </si>
   <si>
-    <t>0xcc,0xdb,0xa7,0x32,0xa7,0x74</t>
-  </si>
-  <si>
-    <t>0xcc,0xdb,0xa7,0x32,0xa6,0x04</t>
-  </si>
-  <si>
-    <t>0xcc,0xdb,0xa7,0x32,0xc6,0xa4</t>
-  </si>
-  <si>
-    <t>0xa0,0xdd,0x6c,0x0f,0xe2,0x78</t>
-  </si>
-  <si>
-    <t>0xcc,0xdb,0xa7,0x32,0xb1,0x54</t>
-  </si>
-  <si>
-    <t>0xcc,0xdb,0xa7,0x33,0x93,0xfc</t>
-  </si>
-  <si>
-    <t>0xcc,0xdb,0xa7,0x32,0xa7,0x88</t>
+    <t>0xcc, 0xdb, 0xa7, 0x32, 0xa7, 0x74</t>
+  </si>
+  <si>
+    <t>0xcc, 0xdb, 0xa7, 0x32, 0xa6, 0x04</t>
+  </si>
+  <si>
+    <t>0xa0, 0xdd, 0x6c, 0x0f, 0xe2, 0x78</t>
+  </si>
+  <si>
+    <t>0xcc, 0xdb, 0xa7, 0x32, 0xc6, 0xa4</t>
+  </si>
+  <si>
+    <t>0xcc, 0xdb, 0xa7, 0x32, 0xb1, 0x54</t>
+  </si>
+  <si>
+    <t>0xcc, 0xdb, 0xa7, 0x33, 0x93, 0xfc</t>
+  </si>
+  <si>
+    <t>0xcc, 0xdb, 0xa7, 0x32, 0xa7, 0x88</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Angsana New"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Inherit"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,22 +123,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -150,9 +155,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีม Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,7 +195,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -296,7 +301,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -449,243 +454,241 @@
   <dimension ref="B2:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="3" max="3" width="48.09765625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="23.4">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="23.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="23.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="23.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="23.4">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="23.4">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="23.4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="23.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="23.4">
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="2:3" ht="23.4">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="2:3" ht="23.4">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="2:3" ht="23.4">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="2:3" ht="23.4">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="2:3" ht="23.4">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="2:3" ht="23.4">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="2:3" ht="23.4">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="2:3" ht="23.4">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="2:3" ht="23.4">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="2:3" ht="23.4">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="2:3" ht="23.4">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="2:3" ht="23.4">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="2:3" ht="23.4">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="2:3" ht="23.4">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="2:3" ht="23.4">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="2:3" ht="23.4">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="2:3" ht="23.4">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="2:3" ht="23.4">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="2:3" ht="23.4">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:3" ht="23.4">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="2:3" ht="23.4">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="2:3" ht="23.4">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="2:3" ht="23.4">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="2:3" ht="23.4">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="2:3" ht="23.4">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="2:3" ht="23.4">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="2:3" ht="23.4">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="2:3" ht="23.4">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="2:3" ht="23.4">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="2:3" ht="23.4">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="2:3" ht="23.4">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="2:3" ht="23.4">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="2:3" ht="23.4">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="2:3" ht="23.4">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="2:3" ht="23.4">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="2:3" ht="23.4">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="2:3" ht="23.4">
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="2:3" ht="23.4">
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="2:3" ht="23.4">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LISTMACADDRESS.xlsx
+++ b/LISTMACADDRESS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESP32_NOW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8AF40-8D1C-4ED1-81F0-5E1014FA15F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB83392-2B88-46FB-86FA-7996F716A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CDA65AEF-01BB-4FD3-BC8F-82377E30BCE6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -33,36 +33,30 @@
     <t>MACADDRESS</t>
   </si>
   <si>
-    <t>0xcc, 0xdb, 0xa7, 0x32, 0xa7, 0x74</t>
+    <t>CCDBA732A788</t>
   </si>
   <si>
-    <t>0xcc, 0xdb, 0xa7, 0x32, 0xa6, 0x04</t>
+    <t>CCDBA73393FC</t>
   </si>
   <si>
-    <t>0xa0, 0xdd, 0x6c, 0x0f, 0xe2, 0x78</t>
+    <t>CCDBA732B154</t>
   </si>
   <si>
-    <t>0xcc, 0xdb, 0xa7, 0x32, 0xc6, 0xa4</t>
+    <t>CCDBA732A774</t>
   </si>
   <si>
-    <t>0xcc, 0xdb, 0xa7, 0x32, 0xb1, 0x54</t>
-  </si>
-  <si>
-    <t>0xcc, 0xdb, 0xa7, 0x33, 0x93, 0xfc</t>
-  </si>
-  <si>
-    <t>0xcc, 0xdb, 0xa7, 0x32, 0xa7, 0x88</t>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -70,13 +64,6 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
@@ -125,21 +112,19 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -155,7 +140,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีม Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -451,241 +436,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC789C79-7DEB-4629-AF10-6719F96EEDE4}">
-  <dimension ref="B2:C49"/>
+  <dimension ref="B2:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15" style="3" customWidth="1"/>
-    <col min="3" max="3" width="48.09765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:4" ht="35.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LISTMACADDRESS.xlsx
+++ b/LISTMACADDRESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESP32_NOW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB83392-2B88-46FB-86FA-7996F716A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA400C9E-0D45-48EF-842A-E62C44B3744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CDA65AEF-01BB-4FD3-BC8F-82377E30BCE6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>CCDBA7338F88</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>CCDBA732B864</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -439,7 +454,7 @@
   <dimension ref="B2:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.3"/>
@@ -464,7 +479,9 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
@@ -473,7 +490,9 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -499,15 +518,23 @@
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1">

--- a/LISTMACADDRESS.xlsx
+++ b/LISTMACADDRESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESP32_NOW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA400C9E-0D45-48EF-842A-E62C44B3744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6546BC-3578-4A9D-A442-61FA2DC605F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CDA65AEF-01BB-4FD3-BC8F-82377E30BCE6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>CCDBA732C6A4</t>
   </si>
 </sst>
 </file>
@@ -71,7 +74,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -139,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -155,7 +158,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีม Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -454,16 +457,16 @@
   <dimension ref="B2:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.09765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="35.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="36" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -472,7 +475,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -483,7 +486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -494,7 +497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -505,7 +508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -514,7 +517,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -525,7 +528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -536,173 +539,175 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>

--- a/LISTMACADDRESS.xlsx
+++ b/LISTMACADDRESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESP32_NOW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6546BC-3578-4A9D-A442-61FA2DC605F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66780C8-8BDB-401F-817B-B51EE8F0CC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CDA65AEF-01BB-4FD3-BC8F-82377E30BCE6}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="B2:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,9 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="4"/>
     </row>
